--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Operativos.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Operativos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7301745F-F284-49D9-9FB2-CD67594B6FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DF7A38-9A07-43C8-99A2-E23B1181218D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{61FB547A-9ECD-42F1-9759-FD979675081E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Ingeniero</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>vida util hornilla</t>
+  </si>
+  <si>
+    <t>Anos depreciacion</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4123D413-88FF-4A93-9B57-02D238509898}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +444,7 @@
     <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +487,11 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3200000</v>
       </c>
@@ -526,7 +532,10 @@
         <v>1468</v>
       </c>
       <c r="N2">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
